--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THChew\Google Drive\00.Sync\04.Office DVCRI\UiTM-Dr Azura-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F124D1-BCA2-4C8D-BF0C-20970167094D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F793BE-CCA4-41EC-B1DE-162DAFBF983B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>INTERNAL_ID</t>
+  </si>
+  <si>
+    <t>7401576554; 7401576553</t>
   </si>
 </sst>
 </file>
@@ -14649,7 +14652,7 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14677,8 +14680,8 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>7401576554</v>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
